--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:J636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -19274,6 +19274,657 @@
         <v>218.9484263325294</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1713.5</v>
+      </c>
+      <c r="D616" t="n">
+        <v>611.2000122070312</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1138.300048828125</v>
+      </c>
+      <c r="F616" t="n">
+        <v>180.9600067138672</v>
+      </c>
+      <c r="G616" t="n">
+        <v>641.5499877929688</v>
+      </c>
+      <c r="H616" t="n">
+        <v>22112.82034301758</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>218.9484263325294</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1755.650024414062</v>
+      </c>
+      <c r="D617" t="n">
+        <v>603.6199951171875</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="F617" t="n">
+        <v>179.9400024414062</v>
+      </c>
+      <c r="G617" t="n">
+        <v>644.2999877929688</v>
+      </c>
+      <c r="H617" t="n">
+        <v>22256.81030273438</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.006511605371146772</v>
+      </c>
+      <c r="J617" t="n">
+        <v>220.3741320814404</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1783.050048828125</v>
+      </c>
+      <c r="D618" t="n">
+        <v>600.3599853515625</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F618" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="G618" t="n">
+        <v>632.0499877929688</v>
+      </c>
+      <c r="H618" t="n">
+        <v>22286.13012695312</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.001317341695415713</v>
+      </c>
+      <c r="J618" t="n">
+        <v>220.6644401142224</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D619" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G619" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H619" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.01722238359894636</v>
+      </c>
+      <c r="J619" t="n">
+        <v>224.4648077485163</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D620" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F620" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G620" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H620" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J620" t="n">
+        <v>225.2205788331677</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>609</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G621" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H621" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J621" t="n">
+        <v>225.5835678197662</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F622" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G622" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H622" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J622" t="n">
+        <v>223.6338724975092</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F623" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G623" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H623" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J623" t="n">
+        <v>221.301301034448</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F624" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G624" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J624" t="n">
+        <v>221.8341936711005</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D625" t="n">
+        <v>608</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G625" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H625" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J625" t="n">
+        <v>220.7027549535948</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F626" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H626" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J626" t="n">
+        <v>220.6527559012188</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D627" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F627" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G627" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H627" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J627" t="n">
+        <v>223.9295294994281</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F628" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G628" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H628" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J628" t="n">
+        <v>225.221273516257</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D629" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F629" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G629" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H629" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J629" t="n">
+        <v>222.8466131417117</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F630" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H630" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J630" t="n">
+        <v>222.6285814604598</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D631" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F631" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G631" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H631" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J631" t="n">
+        <v>222.2148990405636</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D632" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G632" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H632" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J632" t="n">
+        <v>220.7255299226262</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D633" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F633" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G633" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H633" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J633" t="n">
+        <v>224.0916203065262</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D634" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F634" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G634" t="n">
+        <v>672</v>
+      </c>
+      <c r="H634" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J634" t="n">
+        <v>224.1233986584751</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D635" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F635" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G635" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H635" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J635" t="n">
+        <v>222.8823613703141</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D636" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G636" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H636" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J636" t="n">
+        <v>223.292769200981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -19925,6 +19925,657 @@
         <v>223.292769200981</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1713.5</v>
+      </c>
+      <c r="D637" t="n">
+        <v>611.2000122070312</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1138.300048828125</v>
+      </c>
+      <c r="F637" t="n">
+        <v>180.9600067138672</v>
+      </c>
+      <c r="G637" t="n">
+        <v>641.5499877929688</v>
+      </c>
+      <c r="H637" t="n">
+        <v>22112.82034301758</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="n">
+        <v>223.292769200981</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1755.650024414062</v>
+      </c>
+      <c r="D638" t="n">
+        <v>603.6199951171875</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1132.050048828125</v>
+      </c>
+      <c r="F638" t="n">
+        <v>179.9400024414062</v>
+      </c>
+      <c r="G638" t="n">
+        <v>644.2999877929688</v>
+      </c>
+      <c r="H638" t="n">
+        <v>22256.81030273438</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.006511605371146772</v>
+      </c>
+      <c r="J638" t="n">
+        <v>224.7467635962483</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1783.050048828125</v>
+      </c>
+      <c r="D639" t="n">
+        <v>600.3599853515625</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F639" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="G639" t="n">
+        <v>632.0499877929688</v>
+      </c>
+      <c r="H639" t="n">
+        <v>22286.13012695312</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0.001317341695415713</v>
+      </c>
+      <c r="J639" t="n">
+        <v>225.0428318788434</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D640" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F640" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G640" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H640" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.01722238359894636</v>
+      </c>
+      <c r="J640" t="n">
+        <v>228.9186058556541</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D641" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F641" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G641" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H641" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J641" t="n">
+        <v>229.6893728403757</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D642" t="n">
+        <v>609</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F642" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G642" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H642" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J642" t="n">
+        <v>230.0595642017144</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D643" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F643" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G643" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H643" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J643" t="n">
+        <v>228.0711833081073</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F644" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G644" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H644" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J644" t="n">
+        <v>225.6923293009308</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D645" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F645" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G645" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H645" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J645" t="n">
+        <v>226.2357955158659</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D646" t="n">
+        <v>608</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G646" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H646" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J646" t="n">
+        <v>225.0819069556927</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D647" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F647" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G647" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H647" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J647" t="n">
+        <v>225.0309158293828</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D648" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F648" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G648" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H648" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J648" t="n">
+        <v>228.3727066933079</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D649" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F649" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G649" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H649" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J649" t="n">
+        <v>229.6900813072659</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D650" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F650" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G650" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H650" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J650" t="n">
+        <v>227.2683032665379</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D651" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F651" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G651" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H651" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I651" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J651" t="n">
+        <v>227.0459454323403</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D652" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G652" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H652" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J652" t="n">
+        <v>226.6240547859645</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D653" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F653" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G653" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H653" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J653" t="n">
+        <v>225.1051338223511</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D654" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F654" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G654" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H654" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J654" t="n">
+        <v>228.5380136826533</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D655" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F655" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G655" t="n">
+        <v>672</v>
+      </c>
+      <c r="H655" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J655" t="n">
+        <v>228.5704225760452</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D656" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F656" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G656" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H656" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I656" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J656" t="n">
+        <v>227.3047608062991</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D657" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G657" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H657" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J657" t="n">
+        <v>227.7233118895218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -19243,6 +19243,626 @@
         <v>216.4743893632703</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D615" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F615" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G615" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H615" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>216.4743893632703</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D616" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F616" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G616" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H616" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J616" t="n">
+        <v>217.2032567776743</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D617" t="n">
+        <v>609</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G617" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H617" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J617" t="n">
+        <v>217.5533242114411</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F618" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G618" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H618" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J618" t="n">
+        <v>215.6730334497692</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F619" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H619" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J619" t="n">
+        <v>213.4234960359663</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G620" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J620" t="n">
+        <v>213.9374189500864</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D621" t="n">
+        <v>608</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G621" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H621" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J621" t="n">
+        <v>212.8462567855995</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F622" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G622" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J622" t="n">
+        <v>212.7980375817056</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D623" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F623" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G623" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H623" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J623" t="n">
+        <v>215.9581657588975</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F624" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G624" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J624" t="n">
+        <v>217.203926731682</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F625" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G625" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H625" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J625" t="n">
+        <v>214.9137986724952</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G626" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J626" t="n">
+        <v>214.7035284054798</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D627" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J627" t="n">
+        <v>214.3045721052223</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F628" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G628" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H628" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J628" t="n">
+        <v>212.8682210193843</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D629" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F629" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G629" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H629" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J629" t="n">
+        <v>216.1144865150993</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F630" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G630" t="n">
+        <v>672</v>
+      </c>
+      <c r="H630" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J630" t="n">
+        <v>216.145133632579</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D631" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F631" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G631" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H631" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J631" t="n">
+        <v>214.9482743483713</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D632" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G632" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H632" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J632" t="n">
+        <v>215.3440726270621</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1982.800048828125</v>
+      </c>
+      <c r="D633" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F633" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G633" t="n">
+        <v>665.3499755859375</v>
+      </c>
+      <c r="H633" t="n">
+        <v>22805.50018310547</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.01125954254358773</v>
+      </c>
+      <c r="J633" t="n">
+        <v>217.7687483743159</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2010.699951171875</v>
+      </c>
+      <c r="D634" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F634" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="G634" t="n">
+        <v>654.2999877929688</v>
+      </c>
+      <c r="H634" t="n">
+        <v>22858.51940917969</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.002324843816120109</v>
+      </c>
+      <c r="J634" t="n">
+        <v>218.2750267023182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J634"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -19863,6 +19863,626 @@
         <v>218.2750267023182</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D635" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F635" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G635" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H635" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="n">
+        <v>218.2750267023182</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D636" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F636" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G636" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H636" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J636" t="n">
+        <v>219.0099568472163</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D637" t="n">
+        <v>609</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F637" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G637" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H637" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J637" t="n">
+        <v>219.3629361473442</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D638" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F638" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G638" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H638" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J638" t="n">
+        <v>217.4670050978595</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D639" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F639" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G639" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H639" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I639" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J639" t="n">
+        <v>215.198755996846</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D640" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F640" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G640" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H640" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J640" t="n">
+        <v>215.7169537297624</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D641" t="n">
+        <v>608</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F641" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G641" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H641" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J641" t="n">
+        <v>214.6167152614129</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D642" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F642" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G642" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H642" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J642" t="n">
+        <v>214.5680949694307</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D643" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F643" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G643" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H643" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J643" t="n">
+        <v>217.7545091419718</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D644" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F644" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G644" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H644" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J644" t="n">
+        <v>219.0106323739119</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D645" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F645" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G645" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H645" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I645" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J645" t="n">
+        <v>216.7014549938946</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D646" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G646" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H646" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J646" t="n">
+        <v>216.4894356955263</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D647" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F647" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G647" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H647" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J647" t="n">
+        <v>216.0871608705556</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D648" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F648" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G648" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H648" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J648" t="n">
+        <v>214.6388621940361</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D649" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F649" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G649" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H649" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J649" t="n">
+        <v>217.9121301766561</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D650" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F650" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G650" t="n">
+        <v>672</v>
+      </c>
+      <c r="H650" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J650" t="n">
+        <v>217.9430322173358</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D651" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F651" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G651" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H651" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I651" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J651" t="n">
+        <v>216.7362174389791</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D652" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G652" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H652" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J652" t="n">
+        <v>217.1353079739106</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1982.800048828125</v>
+      </c>
+      <c r="D653" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F653" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G653" t="n">
+        <v>665.3499755859375</v>
+      </c>
+      <c r="H653" t="n">
+        <v>22805.50018310547</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0.01125954254358773</v>
+      </c>
+      <c r="J653" t="n">
+        <v>219.5801522117578</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2010.699951171875</v>
+      </c>
+      <c r="D654" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F654" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="G654" t="n">
+        <v>654.2999877929688</v>
+      </c>
+      <c r="H654" t="n">
+        <v>22858.51940917969</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.002324843816120109</v>
+      </c>
+      <c r="J654" t="n">
+        <v>220.09064177077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J674"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -20483,6 +20483,626 @@
         <v>220.09064177077</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D655" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F655" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G655" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H655" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="n">
+        <v>220.09064177077</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D656" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F656" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G656" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H656" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J656" t="n">
+        <v>220.8316850760488</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D657" t="n">
+        <v>609</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F657" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G657" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H657" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J657" t="n">
+        <v>221.1876004634875</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D658" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F658" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G658" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H658" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J658" t="n">
+        <v>219.2758990300327</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D659" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F659" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G659" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H659" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J659" t="n">
+        <v>216.9887825977031</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D660" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F660" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G660" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H660" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J660" t="n">
+        <v>217.511290707425</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D661" t="n">
+        <v>608</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F661" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G661" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H661" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J661" t="n">
+        <v>216.4019004383762</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D662" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F662" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G662" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H662" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I662" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J662" t="n">
+        <v>216.3528757220488</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D663" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F663" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G663" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H663" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J663" t="n">
+        <v>219.5657945372574</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D664" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F664" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G664" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H664" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J664" t="n">
+        <v>220.832366221786</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D665" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F665" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G665" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H665" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I665" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J665" t="n">
+        <v>218.5039810683911</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D666" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F666" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G666" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H666" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I666" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J666" t="n">
+        <v>218.2901981902</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D667" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F667" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G667" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H667" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J667" t="n">
+        <v>217.8845772369758</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D668" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F668" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G668" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H668" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J668" t="n">
+        <v>216.4242315895295</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D669" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F669" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G669" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H669" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J669" t="n">
+        <v>219.7247266661608</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D670" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F670" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G670" t="n">
+        <v>672</v>
+      </c>
+      <c r="H670" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J670" t="n">
+        <v>219.7558857504957</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D671" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F671" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G671" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H671" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I671" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J671" t="n">
+        <v>218.5390326680347</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D672" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F672" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G672" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H672" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J672" t="n">
+        <v>218.9414428442456</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1982.800048828125</v>
+      </c>
+      <c r="D673" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F673" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G673" t="n">
+        <v>665.3499755859375</v>
+      </c>
+      <c r="H673" t="n">
+        <v>22805.50018310547</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0.01125954254358773</v>
+      </c>
+      <c r="J673" t="n">
+        <v>221.4066233345048</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2010.699951171875</v>
+      </c>
+      <c r="D674" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F674" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="G674" t="n">
+        <v>654.2999877929688</v>
+      </c>
+      <c r="H674" t="n">
+        <v>22858.51940917969</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.002324843816120109</v>
+      </c>
+      <c r="J674" t="n">
+        <v>221.9213591536121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J674"/>
+  <dimension ref="A1:J694"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="G589" sqref="G589"/>
@@ -21103,6 +21103,626 @@
         <v>221.9213591536121</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D675" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F675" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G675" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H675" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" t="n">
+        <v>221.9213591536121</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D676" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F676" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G676" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H676" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J676" t="n">
+        <v>222.6685664686348</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D677" t="n">
+        <v>609</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F677" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G677" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H677" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J677" t="n">
+        <v>223.0274423658042</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D678" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F678" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G678" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H678" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J678" t="n">
+        <v>221.09983937008</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D679" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F679" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G679" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H679" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I679" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J679" t="n">
+        <v>218.793698667679</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D680" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F680" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G680" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H680" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J680" t="n">
+        <v>219.3205530079877</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D681" t="n">
+        <v>608</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F681" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G681" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H681" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J681" t="n">
+        <v>218.201934813419</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D682" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F682" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G682" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H682" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I682" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J682" t="n">
+        <v>218.1525023087383</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D683" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F683" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G683" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H683" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J683" t="n">
+        <v>221.3921462326446</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D684" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F684" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G684" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H684" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J684" t="n">
+        <v>222.6692532801529</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D685" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F685" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G685" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H685" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I685" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J685" t="n">
+        <v>220.3215005828225</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D686" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F686" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G686" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H686" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I686" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J686" t="n">
+        <v>220.1059394553242</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D687" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F687" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G687" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H687" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I687" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J687" t="n">
+        <v>219.6969445406996</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D688" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F688" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G688" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H688" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I688" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J688" t="n">
+        <v>218.2244517154351</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D689" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F689" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G689" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H689" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J689" t="n">
+        <v>221.5524003614692</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D690" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F690" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G690" t="n">
+        <v>672</v>
+      </c>
+      <c r="H690" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J690" t="n">
+        <v>221.5838186275524</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D691" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F691" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G691" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H691" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I691" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J691" t="n">
+        <v>220.3568437422173</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D692" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F692" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G692" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H692" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J692" t="n">
+        <v>220.7626011725354</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1982.800048828125</v>
+      </c>
+      <c r="D693" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F693" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G693" t="n">
+        <v>665.3499755859375</v>
+      </c>
+      <c r="H693" t="n">
+        <v>22805.50018310547</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0.01125954254358773</v>
+      </c>
+      <c r="J693" t="n">
+        <v>223.2482870724707</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>2010.699951171875</v>
+      </c>
+      <c r="D694" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F694" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="G694" t="n">
+        <v>654.2999877929688</v>
+      </c>
+      <c r="H694" t="n">
+        <v>22858.51940917969</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.002324843816120109</v>
+      </c>
+      <c r="J694" t="n">
+        <v>223.7673044721305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19245,6 +19245,657 @@
         <v>216.4743893632703</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="D615" t="n">
+        <v>608.5800170898438</v>
+      </c>
+      <c r="E615" t="n">
+        <v>1111.550048828125</v>
+      </c>
+      <c r="F615" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G615" t="n">
+        <v>670.2000122070312</v>
+      </c>
+      <c r="H615" t="n">
+        <v>22669.95040893555</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>216.4743893632703</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D616" t="n">
+        <v>599.9400024414062</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1114</v>
+      </c>
+      <c r="F616" t="n">
+        <v>178.4600067138672</v>
+      </c>
+      <c r="G616" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="H616" t="n">
+        <v>22746.27993774414</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.003366991432787071</v>
+      </c>
+      <c r="J616" t="n">
+        <v>217.2032567776743</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1871.900024414062</v>
+      </c>
+      <c r="D617" t="n">
+        <v>609</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1127.900024414062</v>
+      </c>
+      <c r="F617" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="G617" t="n">
+        <v>650.8499755859375</v>
+      </c>
+      <c r="H617" t="n">
+        <v>22782.94021606445</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.001611704349926693</v>
+      </c>
+      <c r="J617" t="n">
+        <v>217.5533242114411</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D618" t="n">
+        <v>602.1799926757812</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1115.150024414062</v>
+      </c>
+      <c r="F618" t="n">
+        <v>173.4799957275391</v>
+      </c>
+      <c r="G618" t="n">
+        <v>643.8499755859375</v>
+      </c>
+      <c r="H618" t="n">
+        <v>22586.02963256836</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.008642896027846764</v>
+      </c>
+      <c r="J618" t="n">
+        <v>215.6730334497692</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F619" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="H619" t="n">
+        <v>22350.45025634766</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01043031378480992</v>
+      </c>
+      <c r="J619" t="n">
+        <v>213.4234960359663</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1860.449951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>610.3400268554688</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1104.150024414062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>168.3300018310547</v>
+      </c>
+      <c r="G620" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>22404.27005004883</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.002407995950143633</v>
+      </c>
+      <c r="J620" t="n">
+        <v>213.9374189500864</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D621" t="n">
+        <v>608</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="G621" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="H621" t="n">
+        <v>22289.99975585938</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.005100380147810443</v>
+      </c>
+      <c r="J621" t="n">
+        <v>212.8462567855995</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1833.150024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>627.6599731445312</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1112.599975585938</v>
+      </c>
+      <c r="F622" t="n">
+        <v>165.8800048828125</v>
+      </c>
+      <c r="G622" t="n">
+        <v>627.2000122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>22284.95007324219</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.0002265447587481507</v>
+      </c>
+      <c r="J622" t="n">
+        <v>212.7980375817056</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="D623" t="n">
+        <v>645.5999755859375</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1120.099975585938</v>
+      </c>
+      <c r="F623" t="n">
+        <v>167.0200042724609</v>
+      </c>
+      <c r="G623" t="n">
+        <v>651.0999755859375</v>
+      </c>
+      <c r="H623" t="n">
+        <v>22615.88967895508</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01485036334500268</v>
+      </c>
+      <c r="J623" t="n">
+        <v>215.9581657588975</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1894.449951171875</v>
+      </c>
+      <c r="D624" t="n">
+        <v>646.6500244140625</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F624" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G624" t="n">
+        <v>633.4500122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>22746.35009765625</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.005768529142701387</v>
+      </c>
+      <c r="J624" t="n">
+        <v>217.203926731682</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>621.0499877929688</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1115.849975585938</v>
+      </c>
+      <c r="F625" t="n">
+        <v>163.9600067138672</v>
+      </c>
+      <c r="G625" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="H625" t="n">
+        <v>22506.51992797852</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.01054367705799297</v>
+      </c>
+      <c r="J625" t="n">
+        <v>214.9137986724952</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>649.6500244140625</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1110.949951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>160.6000061035156</v>
+      </c>
+      <c r="G626" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="H626" t="n">
+        <v>22484.49969482422</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.0009783935155129372</v>
+      </c>
+      <c r="J626" t="n">
+        <v>214.7035284054798</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D627" t="n">
+        <v>646.7000122070312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1079.949951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>158.5599975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>22442.71960449219</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.00185817300358472</v>
+      </c>
+      <c r="J627" t="n">
+        <v>214.3045721052223</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1890.400024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1054.449951171875</v>
+      </c>
+      <c r="F628" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="G628" t="n">
+        <v>649.5999755859375</v>
+      </c>
+      <c r="H628" t="n">
+        <v>22292.29992675781</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.006702381903139165</v>
+      </c>
+      <c r="J628" t="n">
+        <v>212.8682210193843</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="D629" t="n">
+        <v>654.4500122070312</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1054.599975585938</v>
+      </c>
+      <c r="F629" t="n">
+        <v>161.4299926757812</v>
+      </c>
+      <c r="G629" t="n">
+        <v>665.1500244140625</v>
+      </c>
+      <c r="H629" t="n">
+        <v>22632.26013183594</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.01525011803156592</v>
+      </c>
+      <c r="J629" t="n">
+        <v>216.1144865150993</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>654.0999755859375</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1055.25</v>
+      </c>
+      <c r="F630" t="n">
+        <v>159.5599975585938</v>
+      </c>
+      <c r="G630" t="n">
+        <v>672</v>
+      </c>
+      <c r="H630" t="n">
+        <v>22635.46960449219</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.0001418096397599883</v>
+      </c>
+      <c r="J630" t="n">
+        <v>216.145133632579</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1904.650024414062</v>
+      </c>
+      <c r="D631" t="n">
+        <v>646.8499755859375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1051.550048828125</v>
+      </c>
+      <c r="F631" t="n">
+        <v>158.7400054931641</v>
+      </c>
+      <c r="G631" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="H631" t="n">
+        <v>22510.13034057617</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.005537294613544976</v>
+      </c>
+      <c r="J631" t="n">
+        <v>214.9482743483713</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1928.5</v>
+      </c>
+      <c r="D632" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1063.449951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>156.9400024414062</v>
+      </c>
+      <c r="G632" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="H632" t="n">
+        <v>22551.57971191406</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.001841365230265907</v>
+      </c>
+      <c r="J632" t="n">
+        <v>215.3440726270621</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1982.800048828125</v>
+      </c>
+      <c r="D633" t="n">
+        <v>626.8499755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F633" t="n">
+        <v>156.8500061035156</v>
+      </c>
+      <c r="G633" t="n">
+        <v>665.3499755859375</v>
+      </c>
+      <c r="H633" t="n">
+        <v>22805.50018310547</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.01125954254358773</v>
+      </c>
+      <c r="J633" t="n">
+        <v>217.7687483743159</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2010.699951171875</v>
+      </c>
+      <c r="D634" t="n">
+        <v>608.5499877929688</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1075.949951171875</v>
+      </c>
+      <c r="F634" t="n">
+        <v>156.8099975585938</v>
+      </c>
+      <c r="G634" t="n">
+        <v>654.2999877929688</v>
+      </c>
+      <c r="H634" t="n">
+        <v>22858.51940917969</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.002324843816120109</v>
+      </c>
+      <c r="J634" t="n">
+        <v>218.2750267023182</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1973.400024414062</v>
+      </c>
+      <c r="D635" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1068.550048828125</v>
+      </c>
+      <c r="F635" t="n">
+        <v>158.7200012207031</v>
+      </c>
+      <c r="G635" t="n">
+        <v>656.1500244140625</v>
+      </c>
+      <c r="H635" t="n">
+        <v>22682.84039306641</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.007685494102594012</v>
+      </c>
+      <c r="J635" t="n">
+        <v>216.597475271854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -76,9 +76,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -89,7 +89,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -18631,7 +18632,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="10" t="n">
+      <c r="A595" s="11" t="n">
         <v>45533</v>
       </c>
       <c r="C595" t="n">
@@ -18660,7 +18661,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="10" t="n">
+      <c r="A596" s="11" t="n">
         <v>45534</v>
       </c>
       <c r="C596" t="n">
@@ -18689,7 +18690,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="10" t="n">
+      <c r="A597" s="11" t="n">
         <v>45537</v>
       </c>
       <c r="C597" t="n">
@@ -18718,7 +18719,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="10" t="n">
+      <c r="A598" s="11" t="n">
         <v>45538</v>
       </c>
       <c r="C598" t="n">
@@ -18747,7 +18748,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="10" t="n">
+      <c r="A599" s="11" t="n">
         <v>45539</v>
       </c>
       <c r="C599" t="n">
@@ -18776,7 +18777,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="10" t="n">
+      <c r="A600" s="11" t="n">
         <v>45540</v>
       </c>
       <c r="C600" t="n">
@@ -18805,7 +18806,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="10" t="n">
+      <c r="A601" s="11" t="n">
         <v>45541</v>
       </c>
       <c r="C601" t="n">
@@ -18834,7 +18835,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="10" t="n">
+      <c r="A602" s="11" t="n">
         <v>45544</v>
       </c>
       <c r="C602" t="n">
@@ -18863,7 +18864,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="10" t="n">
+      <c r="A603" s="11" t="n">
         <v>45545</v>
       </c>
       <c r="C603" t="n">
@@ -18892,7 +18893,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="10" t="n">
+      <c r="A604" s="11" t="n">
         <v>45546</v>
       </c>
       <c r="C604" t="n">
@@ -18921,7 +18922,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="10" t="n">
+      <c r="A605" s="11" t="n">
         <v>45547</v>
       </c>
       <c r="C605" t="n">
@@ -18950,7 +18951,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="10" t="n">
+      <c r="A606" s="11" t="n">
         <v>45548</v>
       </c>
       <c r="C606" t="n">
@@ -18979,7 +18980,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="10" t="n">
+      <c r="A607" s="11" t="n">
         <v>45551</v>
       </c>
       <c r="C607" t="n">
@@ -19008,7 +19009,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="10" t="n">
+      <c r="A608" s="11" t="n">
         <v>45552</v>
       </c>
       <c r="C608" t="n">
@@ -19037,7 +19038,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="10" t="n">
+      <c r="A609" s="11" t="n">
         <v>45553</v>
       </c>
       <c r="C609" t="n">
@@ -19066,7 +19067,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="10" t="n">
+      <c r="A610" s="11" t="n">
         <v>45554</v>
       </c>
       <c r="C610" t="n">
@@ -19095,7 +19096,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="10" t="n">
+      <c r="A611" s="11" t="n">
         <v>45555</v>
       </c>
       <c r="C611" t="n">
@@ -19124,7 +19125,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="10" t="n">
+      <c r="A612" s="11" t="n">
         <v>45558</v>
       </c>
       <c r="C612" t="n">
@@ -19153,7 +19154,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="10" t="n">
+      <c r="A613" s="11" t="n">
         <v>45559</v>
       </c>
       <c r="C613" t="n">
@@ -19182,7 +19183,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="10" t="n">
+      <c r="A614" s="11" t="n">
         <v>45560</v>
       </c>
       <c r="C614" t="n">
@@ -19211,7 +19212,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="10" t="n">
+      <c r="A615" s="11" t="n">
         <v>45561</v>
       </c>
       <c r="C615" t="n">
@@ -19240,7 +19241,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="10" t="n">
+      <c r="A616" s="11" t="n">
         <v>45562</v>
       </c>
       <c r="C616" t="n">
@@ -19269,7 +19270,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="10" t="n">
+      <c r="A617" s="11" t="n">
         <v>45565</v>
       </c>
       <c r="C617" t="n">
@@ -19295,6 +19296,64 @@
       </c>
       <c r="J617" t="n">
         <v>218.7980812310896</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1975.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="F618" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="G618" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="H618" t="n">
+        <v>22676.92987060547</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>218.7980812310896</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1913.400024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="G619" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="H619" t="n">
+        <v>22108.40045166016</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.02507082846705178</v>
+      </c>
+      <c r="J619" t="n">
+        <v>213.3126320676249</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19356,6 +19356,64 @@
         <v>213.3126320676249</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1975.25</v>
+      </c>
+      <c r="D620" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="F620" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="G620" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="H620" t="n">
+        <v>22676.92987060547</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>213.3126320676249</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1913.400024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="F621" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="G621" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="H621" t="n">
+        <v>22108.40045166016</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.02507082846705178</v>
+      </c>
+      <c r="J621" t="n">
+        <v>207.9647076592021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19414,6 +19414,64 @@
         <v>207.9647076592021</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1975.25</v>
+      </c>
+      <c r="D622" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="F622" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="G622" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="H622" t="n">
+        <v>22676.92987060547</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>207.9647076592021</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1913.400024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="F623" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="G623" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="H623" t="n">
+        <v>22108.40045166016</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.02507082846705178</v>
+      </c>
+      <c r="J623" t="n">
+        <v>202.7508601462777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -78,7 +78,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -91,6 +91,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19472,6 +19473,64 @@
         <v>202.7508601462777</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="12" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1975.25</v>
+      </c>
+      <c r="D624" t="n">
+        <v>612.25</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1080.349975585938</v>
+      </c>
+      <c r="F624" t="n">
+        <v>155.3399963378906</v>
+      </c>
+      <c r="G624" t="n">
+        <v>653.2000122070312</v>
+      </c>
+      <c r="H624" t="n">
+        <v>22676.92987060547</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>202.7508601462777</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="12" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1913.400024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1069.050048828125</v>
+      </c>
+      <c r="F625" t="n">
+        <v>151.6000061035156</v>
+      </c>
+      <c r="G625" t="n">
+        <v>644.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>22108.40045166016</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.02507082846705178</v>
+      </c>
+      <c r="J625" t="n">
+        <v>197.6677281100032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19529,6 +19529,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1877.949951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="F626" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="G626" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="H626" t="n">
+        <v>21938.65008544922</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19558,6 +19558,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1877.949951171875</v>
+      </c>
+      <c r="D627" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="F627" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="G627" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="H627" t="n">
+        <v>21938.65008544922</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19587,6 +19587,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1877.949951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="F628" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="G628" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="H628" t="n">
+        <v>21938.65008544922</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19616,6 +19616,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1877.949951171875</v>
+      </c>
+      <c r="D629" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="G629" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="H629" t="n">
+        <v>21938.65008544922</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19645,6 +19645,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1877.949951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1064.800048828125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>152.8500061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="H630" t="n">
+        <v>21938.65008544922</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19529,6 +19529,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1867.199951171875</v>
+      </c>
+      <c r="D626" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="F626" t="n">
+        <v>151.3500061035156</v>
+      </c>
+      <c r="G626" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="H626" t="n">
+        <v>21819.49993896484</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19558,6 +19558,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1867.199951171875</v>
+      </c>
+      <c r="D627" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="F627" t="n">
+        <v>151.3500061035156</v>
+      </c>
+      <c r="G627" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="H627" t="n">
+        <v>21819.49993896484</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19587,6 +19587,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1867.199951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="F628" t="n">
+        <v>151.3500061035156</v>
+      </c>
+      <c r="G628" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="H628" t="n">
+        <v>21819.49993896484</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19616,6 +19616,35 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1867.199951171875</v>
+      </c>
+      <c r="D629" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1062.349975585938</v>
+      </c>
+      <c r="F629" t="n">
+        <v>151.3500061035156</v>
+      </c>
+      <c r="G629" t="n">
+        <v>634.4500122070312</v>
+      </c>
+      <c r="H629" t="n">
+        <v>21819.49993896484</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19645,6 +19645,64 @@
         <v>211.5458480055004</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="10" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1853.949951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1058.150024414062</v>
+      </c>
+      <c r="F630" t="n">
+        <v>151.1000061035156</v>
+      </c>
+      <c r="G630" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="H630" t="n">
+        <v>21806.35003662109</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>211.5458480055004</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="10" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1862.050048828125</v>
+      </c>
+      <c r="D631" t="n">
+        <v>608.2999877929688</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1020.099975585938</v>
+      </c>
+      <c r="F631" t="n">
+        <v>150.7599945068359</v>
+      </c>
+      <c r="G631" t="n">
+        <v>625.7999877929688</v>
+      </c>
+      <c r="H631" t="n">
+        <v>21643.76992797852</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.007455631427063436</v>
+      </c>
+      <c r="J631" t="n">
+        <v>209.9686401328458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J631"/>
+  <dimension ref="A1:J632"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19703,6 +19703,35 @@
         <v>209.9686401328458</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="10" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1815.800048828125</v>
+      </c>
+      <c r="D632" t="n">
+        <v>588.4000244140625</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1020.849975585938</v>
+      </c>
+      <c r="F632" t="n">
+        <v>149.1199951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>609.0999755859375</v>
+      </c>
+      <c r="H632" t="n">
+        <v>21233.0400390625</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>209.9686401328458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
       <selection activeCell="A588" sqref="A588"/>
@@ -19685,6 +19685,35 @@
         <v>204.8694854132961</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="13" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1758.400024414062</v>
+      </c>
+      <c r="D631" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1005.700012207031</v>
+      </c>
+      <c r="F631" t="n">
+        <v>144.6900024414062</v>
+      </c>
+      <c r="G631" t="n">
+        <v>603.5999755859375</v>
+      </c>
+      <c r="H631" t="n">
+        <v>20726.18017578125</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>204.8694854132961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/Large_Caps.xlsx
+++ b/NAV/Large_Caps.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="500" yWindow="1300" windowWidth="27640" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -18,8 +18,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -96,7 +96,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -110,7 +110,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
       <selection activeCell="A658" sqref="A658"/>
@@ -20526,7 +20527,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="13" t="n">
+      <c r="A659" s="14" t="n">
         <v>45623</v>
       </c>
       <c r="C659" t="n">
@@ -20555,7 +20556,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="13" t="n">
+      <c r="A660" s="14" t="n">
         <v>45624</v>
       </c>
       <c r="C660" t="n">
@@ -20584,7 +20585,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="13" t="n">
+      <c r="A661" s="14" t="n">
         <v>45625</v>
       </c>
       <c r="C661" t="n">
@@ -20613,7 +20614,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="13" t="n">
+      <c r="A662" s="14" t="n">
         <v>45628</v>
       </c>
       <c r="C662" t="n">
@@ -20642,7 +20643,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="13" t="n">
+      <c r="A663" s="14" t="n">
         <v>45629</v>
       </c>
       <c r="C663" t="n">
@@ -20671,7 +20672,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="13" t="n">
+      <c r="A664" s="14" t="n">
         <v>45630</v>
       </c>
       <c r="C664" t="n">
@@ -20700,7 +20701,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="13" t="n">
+      <c r="A665" s="14" t="n">
         <v>45631</v>
       </c>
       <c r="C665" t="n">
@@ -20729,7 +20730,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="13" t="n">
+      <c r="A666" s="14" t="n">
         <v>45632</v>
       </c>
       <c r="C666" t="n">
@@ -20758,7 +20759,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="13" t="n">
+      <c r="A667" s="14" t="n">
         <v>45635</v>
       </c>
       <c r="C667" t="n">
@@ -20787,7 +20788,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="13" t="n">
+      <c r="A668" s="14" t="n">
         <v>45636</v>
       </c>
       <c r="C668" t="n">
@@ -20816,7 +20817,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="13" t="n">
+      <c r="A669" s="14" t="n">
         <v>45637</v>
       </c>
       <c r="C669" t="n">
@@ -20845,7 +20846,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="13" t="n">
+      <c r="A670" s="14" t="n">
         <v>45638</v>
       </c>
       <c r="C670" t="n">
@@ -20874,7 +20875,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="13" t="n">
+      <c r="A671" s="14" t="n">
         <v>45639</v>
       </c>
       <c r="C671" t="n">
@@ -20903,7 +20904,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="13" t="n">
+      <c r="A672" s="14" t="n">
         <v>45642</v>
       </c>
       <c r="C672" t="n">
@@ -20932,7 +20933,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="13" t="n">
+      <c r="A673" s="14" t="n">
         <v>45643</v>
       </c>
       <c r="C673" t="n">
@@ -20961,7 +20962,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="13" t="n">
+      <c r="A674" s="14" t="n">
         <v>45644</v>
       </c>
       <c r="C674" t="n">
@@ -20990,7 +20991,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="13" t="n">
+      <c r="A675" s="14" t="n">
         <v>45645</v>
       </c>
       <c r="C675" t="n">
@@ -21019,7 +21020,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="13" t="n">
+      <c r="A676" s="14" t="n">
         <v>45646</v>
       </c>
       <c r="C676" t="n">
@@ -21048,7 +21049,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="13" t="n">
+      <c r="A677" s="14" t="n">
         <v>45649</v>
       </c>
       <c r="C677" t="n">
@@ -21077,7 +21078,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="13" t="n">
+      <c r="A678" s="14" t="n">
         <v>45650</v>
       </c>
       <c r="C678" t="n">
@@ -21106,7 +21107,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="13" t="n">
+      <c r="A679" s="14" t="n">
         <v>45652</v>
       </c>
       <c r="C679" t="n">
@@ -21135,7 +21136,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="13" t="n">
+      <c r="A680" s="14" t="n">
         <v>45653</v>
       </c>
       <c r="C680" t="n">
@@ -21164,7 +21165,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="13" t="n">
+      <c r="A681" s="14" t="n">
         <v>45656</v>
       </c>
       <c r="C681" t="n">
@@ -21193,7 +21194,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="13" t="n">
+      <c r="A682" s="14" t="n">
         <v>45657</v>
       </c>
       <c r="C682" t="n">
@@ -21222,7 +21223,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="13" t="n">
+      <c r="A683" s="14" t="n">
         <v>45658</v>
       </c>
       <c r="C683" t="n">
@@ -21251,7 +21252,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="13" t="n">
+      <c r="A684" s="14" t="n">
         <v>45659</v>
       </c>
       <c r="C684" t="n">
@@ -21280,7 +21281,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="13" t="n">
+      <c r="A685" s="14" t="n">
         <v>45660</v>
       </c>
       <c r="C685" t="n">
@@ -21309,7 +21310,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="13" t="n">
+      <c r="A686" s="14" t="n">
         <v>45663</v>
       </c>
       <c r="C686" t="n">
@@ -21338,7 +21339,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="13" t="n">
+      <c r="A687" s="14" t="n">
         <v>45664</v>
       </c>
       <c r="C687" t="n">
@@ -21367,7 +21368,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="13" t="n">
+      <c r="A688" s="14" t="n">
         <v>45665</v>
       </c>
       <c r="C688" t="n">
@@ -21396,7 +21397,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="13" t="n">
+      <c r="A689" s="14" t="n">
         <v>45666</v>
       </c>
       <c r="C689" t="n">
@@ -21425,7 +21426,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="13" t="n">
+      <c r="A690" s="14" t="n">
         <v>45667</v>
       </c>
       <c r="C690" t="n">
@@ -21454,7 +21455,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="13" t="n">
+      <c r="A691" s="14" t="n">
         <v>45670</v>
       </c>
       <c r="C691" t="n">
@@ -21483,7 +21484,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="13" t="n">
+      <c r="A692" s="14" t="n">
         <v>45671</v>
       </c>
       <c r="C692" t="n">
@@ -21512,7 +21513,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="13" t="n">
+      <c r="A693" s="14" t="n">
         <v>45672</v>
       </c>
       <c r="C693" t="n">
@@ -21541,7 +21542,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="13" t="n">
+      <c r="A694" s="14" t="n">
         <v>45673</v>
       </c>
       <c r="C694" t="n">
@@ -21570,7 +21571,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="13" t="n">
+      <c r="A695" s="14" t="n">
         <v>45674</v>
       </c>
       <c r="C695" t="n">
@@ -21599,7 +21600,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="13" t="n">
+      <c r="A696" s="14" t="n">
         <v>45677</v>
       </c>
       <c r="C696" t="n">
@@ -21628,7 +21629,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="13" t="n">
+      <c r="A697" s="14" t="n">
         <v>45678</v>
       </c>
       <c r="C697" t="n">
@@ -21657,7 +21658,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="13" t="n">
+      <c r="A698" s="14" t="n">
         <v>45679</v>
       </c>
       <c r="C698" t="n">
@@ -21686,7 +21687,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="13" t="n">
+      <c r="A699" s="14" t="n">
         <v>45680</v>
       </c>
       <c r="C699" t="n">
@@ -21715,7 +21716,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="13" t="n">
+      <c r="A700" s="14" t="n">
         <v>45681</v>
       </c>
       <c r="C700" t="n">
@@ -21744,7 +21745,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="13" t="n">
+      <c r="A701" s="14" t="n">
         <v>45684</v>
       </c>
       <c r="C701" t="n">
@@ -21773,7 +21774,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="13" t="n">
+      <c r="A702" s="14" t="n">
         <v>45685</v>
       </c>
       <c r="C702" t="n">
@@ -21799,6 +21800,1717 @@
       </c>
       <c r="J702" t="n">
         <v>175.5842000607748</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="14" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1790.400024414062</v>
+      </c>
+      <c r="D703" t="n">
+        <v>379.4500122070312</v>
+      </c>
+      <c r="E703" t="n">
+        <v>932.1500244140625</v>
+      </c>
+      <c r="F703" t="n">
+        <v>399.1000061035156</v>
+      </c>
+      <c r="G703" t="n">
+        <v>141.7299957275391</v>
+      </c>
+      <c r="H703" t="n">
+        <v>20800.22027587891</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.02294169661151837</v>
+      </c>
+      <c r="J703" t="n">
+        <v>179.6123995083452</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="14" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1745.199951171875</v>
+      </c>
+      <c r="D704" t="n">
+        <v>385.0499877929688</v>
+      </c>
+      <c r="E704" t="n">
+        <v>953.4500122070312</v>
+      </c>
+      <c r="F704" t="n">
+        <v>413.7000122070312</v>
+      </c>
+      <c r="G704" t="n">
+        <v>148.2299957275391</v>
+      </c>
+      <c r="H704" t="n">
+        <v>21105.51977539062</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.01467770511381368</v>
+      </c>
+      <c r="J704" t="n">
+        <v>182.2486973431132</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="14" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1736.099975585938</v>
+      </c>
+      <c r="D705" t="n">
+        <v>395.8999938964844</v>
+      </c>
+      <c r="E705" t="n">
+        <v>970.25</v>
+      </c>
+      <c r="F705" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="G705" t="n">
+        <v>150.9400024414062</v>
+      </c>
+      <c r="H705" t="n">
+        <v>21417.00991821289</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.01475870512250867</v>
+      </c>
+      <c r="J705" t="n">
+        <v>184.9384521261615</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="14" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D706" t="n">
+        <v>385.2999877929688</v>
+      </c>
+      <c r="E706" t="n">
+        <v>975.7999877929688</v>
+      </c>
+      <c r="F706" t="n">
+        <v>404.0499877929688</v>
+      </c>
+      <c r="G706" t="n">
+        <v>141.2200012207031</v>
+      </c>
+      <c r="H706" t="n">
+        <v>21000.97973632812</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.01942522245044936</v>
+      </c>
+      <c r="J706" t="n">
+        <v>181.3459815539691</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="14" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1794.849975585938</v>
+      </c>
+      <c r="D707" t="n">
+        <v>374</v>
+      </c>
+      <c r="E707" t="n">
+        <v>962.7000122070312</v>
+      </c>
+      <c r="F707" t="n">
+        <v>385.2000122070312</v>
+      </c>
+      <c r="G707" t="n">
+        <v>136.8399963378906</v>
+      </c>
+      <c r="H707" t="n">
+        <v>20677.80999755859</v>
+      </c>
+      <c r="I707" t="n">
+        <v>-0.01538831725124245</v>
+      </c>
+      <c r="J707" t="n">
+        <v>178.5553720575786</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="14" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1813.25</v>
+      </c>
+      <c r="D708" t="n">
+        <v>376.5499877929688</v>
+      </c>
+      <c r="E708" t="n">
+        <v>974</v>
+      </c>
+      <c r="F708" t="n">
+        <v>405.1000061035156</v>
+      </c>
+      <c r="G708" t="n">
+        <v>137.8399963378906</v>
+      </c>
+      <c r="H708" t="n">
+        <v>21000.75982666016</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.01561818341205828</v>
+      </c>
+      <c r="J708" t="n">
+        <v>181.3440826075822</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="14" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1796.75</v>
+      </c>
+      <c r="D709" t="n">
+        <v>382.8500061035156</v>
+      </c>
+      <c r="E709" t="n">
+        <v>977</v>
+      </c>
+      <c r="F709" t="n">
+        <v>412.6000061035156</v>
+      </c>
+      <c r="G709" t="n">
+        <v>137.9299926757812</v>
+      </c>
+      <c r="H709" t="n">
+        <v>21097.71994018555</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.004616981210475117</v>
+      </c>
+      <c r="J709" t="n">
+        <v>182.1813448296122</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="14" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D710" t="n">
+        <v>379.6000061035156</v>
+      </c>
+      <c r="E710" t="n">
+        <v>1008.200012207031</v>
+      </c>
+      <c r="F710" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="G710" t="n">
+        <v>136.3099975585938</v>
+      </c>
+      <c r="H710" t="n">
+        <v>21096.43997192383</v>
+      </c>
+      <c r="I710" t="n">
+        <v>-6.066855875173273e-05</v>
+      </c>
+      <c r="J710" t="n">
+        <v>182.17029214999</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="14" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1798.349975585938</v>
+      </c>
+      <c r="D711" t="n">
+        <v>378.25</v>
+      </c>
+      <c r="E711" t="n">
+        <v>994.1500244140625</v>
+      </c>
+      <c r="F711" t="n">
+        <v>409.6499938964844</v>
+      </c>
+      <c r="G711" t="n">
+        <v>133.4299926757812</v>
+      </c>
+      <c r="H711" t="n">
+        <v>21006.06982421875</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.004283668136678374</v>
+      </c>
+      <c r="J711" t="n">
+        <v>181.3899350740577</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="14" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1792.400024414062</v>
+      </c>
+      <c r="D712" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="E712" t="n">
+        <v>964.6500244140625</v>
+      </c>
+      <c r="F712" t="n">
+        <v>396.5499877929688</v>
+      </c>
+      <c r="G712" t="n">
+        <v>131.0500030517578</v>
+      </c>
+      <c r="H712" t="n">
+        <v>20593.55017089844</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.01963811682872261</v>
+      </c>
+      <c r="J712" t="n">
+        <v>177.8277783375189</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="14" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1744.849975585938</v>
+      </c>
+      <c r="D713" t="n">
+        <v>359</v>
+      </c>
+      <c r="E713" t="n">
+        <v>942.25</v>
+      </c>
+      <c r="F713" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="G713" t="n">
+        <v>126.25</v>
+      </c>
+      <c r="H713" t="n">
+        <v>19928.79992675781</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.03227953600152002</v>
+      </c>
+      <c r="J713" t="n">
+        <v>172.0875801646027</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="14" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1788.699951171875</v>
+      </c>
+      <c r="D714" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E714" t="n">
+        <v>934.0499877929688</v>
+      </c>
+      <c r="F714" t="n">
+        <v>373.8500061035156</v>
+      </c>
+      <c r="G714" t="n">
+        <v>125.3499984741211</v>
+      </c>
+      <c r="H714" t="n">
+        <v>19999.39987182617</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.003542608954268587</v>
+      </c>
+      <c r="J714" t="n">
+        <v>172.6972191670122</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="14" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1849.25</v>
+      </c>
+      <c r="D715" t="n">
+        <v>361.6499938964844</v>
+      </c>
+      <c r="E715" t="n">
+        <v>942.8499755859375</v>
+      </c>
+      <c r="F715" t="n">
+        <v>384.5</v>
+      </c>
+      <c r="G715" t="n">
+        <v>126.5699996948242</v>
+      </c>
+      <c r="H715" t="n">
+        <v>20353.8298034668</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.01772202835645696</v>
+      </c>
+      <c r="J715" t="n">
+        <v>175.7577641821712</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="14" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1841.300048828125</v>
+      </c>
+      <c r="D716" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="E716" t="n">
+        <v>901.8499755859375</v>
+      </c>
+      <c r="F716" t="n">
+        <v>371.2999877929688</v>
+      </c>
+      <c r="G716" t="n">
+        <v>121.75</v>
+      </c>
+      <c r="H716" t="n">
+        <v>19821.75006103516</v>
+      </c>
+      <c r="I716" t="n">
+        <v>-0.0261415049437533</v>
+      </c>
+      <c r="J716" t="n">
+        <v>171.1631917209</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="14" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1894.849975585938</v>
+      </c>
+      <c r="D717" t="n">
+        <v>360.1000061035156</v>
+      </c>
+      <c r="E717" t="n">
+        <v>923.9000244140625</v>
+      </c>
+      <c r="F717" t="n">
+        <v>372.3500061035156</v>
+      </c>
+      <c r="G717" t="n">
+        <v>121.7799987792969</v>
+      </c>
+      <c r="H717" t="n">
+        <v>20166.67013549805</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.0174010908926211</v>
+      </c>
+      <c r="J717" t="n">
+        <v>174.1416179775065</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="14" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>361.1000061035156</v>
+      </c>
+      <c r="E718" t="n">
+        <v>914.0499877929688</v>
+      </c>
+      <c r="F718" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="G718" t="n">
+        <v>119.2699966430664</v>
+      </c>
+      <c r="H718" t="n">
+        <v>20089.92977905273</v>
+      </c>
+      <c r="I718" t="n">
+        <v>-0.003805306276628761</v>
+      </c>
+      <c r="J718" t="n">
+        <v>173.4789557855944</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="14" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1875.349975585938</v>
+      </c>
+      <c r="D719" t="n">
+        <v>362.2999877929688</v>
+      </c>
+      <c r="E719" t="n">
+        <v>891.4500122070312</v>
+      </c>
+      <c r="F719" t="n">
+        <v>384.4500122070312</v>
+      </c>
+      <c r="G719" t="n">
+        <v>124.2699966430664</v>
+      </c>
+      <c r="H719" t="n">
+        <v>20126.67987060547</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.001829279243726017</v>
+      </c>
+      <c r="J719" t="n">
+        <v>173.7962972386362</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="14" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1881.25</v>
+      </c>
+      <c r="D720" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="E720" t="n">
+        <v>899.6500244140625</v>
+      </c>
+      <c r="F720" t="n">
+        <v>391.7000122070312</v>
+      </c>
+      <c r="G720" t="n">
+        <v>124.7799987792969</v>
+      </c>
+      <c r="H720" t="n">
+        <v>20317.77032470703</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.00949438532982509</v>
+      </c>
+      <c r="J720" t="n">
+        <v>175.4463862535167</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="14" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1879.349975585938</v>
+      </c>
+      <c r="D721" t="n">
+        <v>369.9500122070312</v>
+      </c>
+      <c r="E721" t="n">
+        <v>885.3499755859375</v>
+      </c>
+      <c r="F721" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="G721" t="n">
+        <v>125.1100006103516</v>
+      </c>
+      <c r="H721" t="n">
+        <v>20254.49005126953</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.003114528436250175</v>
+      </c>
+      <c r="J721" t="n">
+        <v>174.8999534944928</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="14" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1857.800048828125</v>
+      </c>
+      <c r="D722" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="E722" t="n">
+        <v>891.25</v>
+      </c>
+      <c r="F722" t="n">
+        <v>382.8500061035156</v>
+      </c>
+      <c r="G722" t="n">
+        <v>123.4700012207031</v>
+      </c>
+      <c r="H722" t="n">
+        <v>20068.53009033203</v>
+      </c>
+      <c r="I722" t="n">
+        <v>-0.009181172197709525</v>
+      </c>
+      <c r="J722" t="n">
+        <v>173.2941669040884</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="14" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1875.099975585938</v>
+      </c>
+      <c r="D723" t="n">
+        <v>361.1499938964844</v>
+      </c>
+      <c r="E723" t="n">
+        <v>882.9500122070312</v>
+      </c>
+      <c r="F723" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="G723" t="n">
+        <v>123.2600021362305</v>
+      </c>
+      <c r="H723" t="n">
+        <v>20026.54006958008</v>
+      </c>
+      <c r="I723" t="n">
+        <v>-0.002092331653735902</v>
+      </c>
+      <c r="J723" t="n">
+        <v>172.9315780332672</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="14" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1925.550048828125</v>
+      </c>
+      <c r="D724" t="n">
+        <v>363.8500061035156</v>
+      </c>
+      <c r="E724" t="n">
+        <v>886.4500122070312</v>
+      </c>
+      <c r="F724" t="n">
+        <v>378.1000061035156</v>
+      </c>
+      <c r="G724" t="n">
+        <v>120.3600006103516</v>
+      </c>
+      <c r="H724" t="n">
+        <v>20124.69033813477</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.004901009770718</v>
+      </c>
+      <c r="J724" t="n">
+        <v>173.779117386874</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="14" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1872.300048828125</v>
+      </c>
+      <c r="D725" t="n">
+        <v>369.3500061035156</v>
+      </c>
+      <c r="E725" t="n">
+        <v>876.5999755859375</v>
+      </c>
+      <c r="F725" t="n">
+        <v>364.2999877929688</v>
+      </c>
+      <c r="G725" t="n">
+        <v>112.4199981689453</v>
+      </c>
+      <c r="H725" t="n">
+        <v>19675.22994995117</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.02233377908587743</v>
+      </c>
+      <c r="J725" t="n">
+        <v>169.8979729694168</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="14" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1838.550048828125</v>
+      </c>
+      <c r="D726" t="n">
+        <v>360.3500061035156</v>
+      </c>
+      <c r="E726" t="n">
+        <v>870.4500122070312</v>
+      </c>
+      <c r="F726" t="n">
+        <v>379.7000122070312</v>
+      </c>
+      <c r="G726" t="n">
+        <v>111.129997253418</v>
+      </c>
+      <c r="H726" t="n">
+        <v>19536.47030639648</v>
+      </c>
+      <c r="I726" t="n">
+        <v>-0.007052504286234879</v>
+      </c>
+      <c r="J726" t="n">
+        <v>168.6997667868274</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="14" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1790.300048828125</v>
+      </c>
+      <c r="D727" t="n">
+        <v>363.8500061035156</v>
+      </c>
+      <c r="E727" t="n">
+        <v>871.6500244140625</v>
+      </c>
+      <c r="F727" t="n">
+        <v>383.2999877929688</v>
+      </c>
+      <c r="G727" t="n">
+        <v>114.5899963378906</v>
+      </c>
+      <c r="H727" t="n">
+        <v>19548.06015014648</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0.0005932414386136753</v>
+      </c>
+      <c r="J727" t="n">
+        <v>168.7998464791698</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="14" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1801.800048828125</v>
+      </c>
+      <c r="D728" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="E728" t="n">
+        <v>887.4500122070312</v>
+      </c>
+      <c r="F728" t="n">
+        <v>395.75</v>
+      </c>
+      <c r="G728" t="n">
+        <v>117.7300033569336</v>
+      </c>
+      <c r="H728" t="n">
+        <v>19884.92028808594</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.01723240747941574</v>
+      </c>
+      <c r="J728" t="n">
+        <v>171.7086742161616</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="14" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1845.449951171875</v>
+      </c>
+      <c r="D729" t="n">
+        <v>382.6000061035156</v>
+      </c>
+      <c r="E729" t="n">
+        <v>907.4000244140625</v>
+      </c>
+      <c r="F729" t="n">
+        <v>405.75</v>
+      </c>
+      <c r="G729" t="n">
+        <v>120.5899963378906</v>
+      </c>
+      <c r="H729" t="n">
+        <v>20422.10995483398</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.0270149268372931</v>
+      </c>
+      <c r="J729" t="n">
+        <v>176.3473714874398</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="14" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1845.300048828125</v>
+      </c>
+      <c r="D730" t="n">
+        <v>380.6499938964844</v>
+      </c>
+      <c r="E730" t="n">
+        <v>900.7999877929688</v>
+      </c>
+      <c r="F730" t="n">
+        <v>401.1000061035156</v>
+      </c>
+      <c r="G730" t="n">
+        <v>123.4199981689453</v>
+      </c>
+      <c r="H730" t="n">
+        <v>20397.93002319336</v>
+      </c>
+      <c r="I730" t="n">
+        <v>-0.001184007514115921</v>
+      </c>
+      <c r="J730" t="n">
+        <v>176.1385748745041</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="14" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1840.349975585938</v>
+      </c>
+      <c r="D731" t="n">
+        <v>375.1499938964844</v>
+      </c>
+      <c r="E731" t="n">
+        <v>893.7000122070312</v>
+      </c>
+      <c r="F731" t="n">
+        <v>394.25</v>
+      </c>
+      <c r="G731" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="H731" t="n">
+        <v>20144.1999206543</v>
+      </c>
+      <c r="I731" t="n">
+        <v>-0.01243901230421714</v>
+      </c>
+      <c r="J731" t="n">
+        <v>173.9475849743928</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="14" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1805.400024414062</v>
+      </c>
+      <c r="D732" t="n">
+        <v>379.0499877929688</v>
+      </c>
+      <c r="E732" t="n">
+        <v>899.8499755859375</v>
+      </c>
+      <c r="F732" t="n">
+        <v>399.3999938964844</v>
+      </c>
+      <c r="G732" t="n">
+        <v>119.3000030517578</v>
+      </c>
+      <c r="H732" t="n">
+        <v>20143.39984130859</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-3.971760352133846e-05</v>
+      </c>
+      <c r="J732" t="n">
+        <v>173.9406761931793</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="14" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1819.449951171875</v>
+      </c>
+      <c r="D733" t="n">
+        <v>380.7000122070312</v>
+      </c>
+      <c r="E733" t="n">
+        <v>888.25</v>
+      </c>
+      <c r="F733" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="G733" t="n">
+        <v>119.1999969482422</v>
+      </c>
+      <c r="H733" t="n">
+        <v>20116.89996337891</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-0.001315561332171122</v>
+      </c>
+      <c r="J733" t="n">
+        <v>173.7118465654879</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="14" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1807.449951171875</v>
+      </c>
+      <c r="D734" t="n">
+        <v>378.2999877929688</v>
+      </c>
+      <c r="E734" t="n">
+        <v>883.0999755859375</v>
+      </c>
+      <c r="F734" t="n">
+        <v>388.3500061035156</v>
+      </c>
+      <c r="G734" t="n">
+        <v>117.6900024414062</v>
+      </c>
+      <c r="H734" t="n">
+        <v>19930.50970458984</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.00926535694507454</v>
+      </c>
+      <c r="J734" t="n">
+        <v>172.1023443014706</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="14" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1871.599975585938</v>
+      </c>
+      <c r="D735" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="E735" t="n">
+        <v>892.7000122070312</v>
+      </c>
+      <c r="F735" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="G735" t="n">
+        <v>118.7699966430664</v>
+      </c>
+      <c r="H735" t="n">
+        <v>20289.63000488281</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.0180186209793855</v>
+      </c>
+      <c r="J735" t="n">
+        <v>175.2033912131025</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="14" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1871.599975585938</v>
+      </c>
+      <c r="D736" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="E736" t="n">
+        <v>892.7000122070312</v>
+      </c>
+      <c r="F736" t="n">
+        <v>389.7000122070312</v>
+      </c>
+      <c r="G736" t="n">
+        <v>118.7699966430664</v>
+      </c>
+      <c r="H736" t="n">
+        <v>20289.63000488281</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0</v>
+      </c>
+      <c r="J736" t="n">
+        <v>175.2033912131025</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="14" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1842.25</v>
+      </c>
+      <c r="D737" t="n">
+        <v>395.8500061035156</v>
+      </c>
+      <c r="E737" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="F737" t="n">
+        <v>403.8999938964844</v>
+      </c>
+      <c r="G737" t="n">
+        <v>128.1100006103516</v>
+      </c>
+      <c r="H737" t="n">
+        <v>20736.4401550293</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.02202160167725863</v>
+      </c>
+      <c r="J737" t="n">
+        <v>179.0616505069024</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="14" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1851.849975585938</v>
+      </c>
+      <c r="D738" t="n">
+        <v>396.3999938964844</v>
+      </c>
+      <c r="E738" t="n">
+        <v>917.25</v>
+      </c>
+      <c r="F738" t="n">
+        <v>402.3500061035156</v>
+      </c>
+      <c r="G738" t="n">
+        <v>128.5200042724609</v>
+      </c>
+      <c r="H738" t="n">
+        <v>20805.48001098633</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.003329397690291924</v>
+      </c>
+      <c r="J738" t="n">
+        <v>179.6578179525199</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="14" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1847.25</v>
+      </c>
+      <c r="D739" t="n">
+        <v>405.3999938964844</v>
+      </c>
+      <c r="E739" t="n">
+        <v>918.5999755859375</v>
+      </c>
+      <c r="F739" t="n">
+        <v>407.7999877929688</v>
+      </c>
+      <c r="G739" t="n">
+        <v>129.6600036621094</v>
+      </c>
+      <c r="H739" t="n">
+        <v>20968.38980102539</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.007830138499714404</v>
+      </c>
+      <c r="J739" t="n">
+        <v>181.0645635496446</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="14" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1894.150024414062</v>
+      </c>
+      <c r="D740" t="n">
+        <v>406</v>
+      </c>
+      <c r="E740" t="n">
+        <v>923.7000122070312</v>
+      </c>
+      <c r="F740" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="G740" t="n">
+        <v>132.8000030517578</v>
+      </c>
+      <c r="H740" t="n">
+        <v>21358.15020751953</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.01858799889703885</v>
+      </c>
+      <c r="J740" t="n">
+        <v>184.4301914571982</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="14" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1945.050048828125</v>
+      </c>
+      <c r="D741" t="n">
+        <v>398.2999877929688</v>
+      </c>
+      <c r="E741" t="n">
+        <v>907.3499755859375</v>
+      </c>
+      <c r="F741" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="G741" t="n">
+        <v>129.4100036621094</v>
+      </c>
+      <c r="H741" t="n">
+        <v>21213.03997802734</v>
+      </c>
+      <c r="I741" t="n">
+        <v>-0.006794138447490587</v>
+      </c>
+      <c r="J741" t="n">
+        <v>183.1771472025409</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="14" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1943.400024414062</v>
+      </c>
+      <c r="D742" t="n">
+        <v>394.7999877929688</v>
+      </c>
+      <c r="E742" t="n">
+        <v>907.5</v>
+      </c>
+      <c r="F742" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="G742" t="n">
+        <v>128.3899993896484</v>
+      </c>
+      <c r="H742" t="n">
+        <v>21075.85992431641</v>
+      </c>
+      <c r="I742" t="n">
+        <v>-0.006466779577704555</v>
+      </c>
+      <c r="J742" t="n">
+        <v>181.9925809679093</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="14" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C743" t="n">
+        <v>2005.75</v>
+      </c>
+      <c r="D743" t="n">
+        <v>396.8500061035156</v>
+      </c>
+      <c r="E743" t="n">
+        <v>890.75</v>
+      </c>
+      <c r="F743" t="n">
+        <v>421</v>
+      </c>
+      <c r="G743" t="n">
+        <v>124.3399963378906</v>
+      </c>
+      <c r="H743" t="n">
+        <v>21188.50997924805</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0.005344980244515191</v>
+      </c>
+      <c r="J743" t="n">
+        <v>182.9653277178311</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="14" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>2007.349975585938</v>
+      </c>
+      <c r="D744" t="n">
+        <v>398.2000122070312</v>
+      </c>
+      <c r="E744" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="F744" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="G744" t="n">
+        <v>124.4199981689453</v>
+      </c>
+      <c r="H744" t="n">
+        <v>21134.33013916016</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.002557038703568782</v>
+      </c>
+      <c r="J744" t="n">
+        <v>182.4974782934454</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="14" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1937.099975585938</v>
+      </c>
+      <c r="D745" t="n">
+        <v>397.6499938964844</v>
+      </c>
+      <c r="E745" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="F745" t="n">
+        <v>404.7000122070312</v>
+      </c>
+      <c r="G745" t="n">
+        <v>124.379997253418</v>
+      </c>
+      <c r="H745" t="n">
+        <v>20795.66989135742</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.01602417704146795</v>
+      </c>
+      <c r="J745" t="n">
+        <v>179.5731063916498</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="14" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1930.949951171875</v>
+      </c>
+      <c r="D746" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="E746" t="n">
+        <v>891.1500244140625</v>
+      </c>
+      <c r="F746" t="n">
+        <v>415.8500061035156</v>
+      </c>
+      <c r="G746" t="n">
+        <v>127.4800033569336</v>
+      </c>
+      <c r="H746" t="n">
+        <v>21007.42010498047</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.01018241849044975</v>
+      </c>
+      <c r="J746" t="n">
+        <v>181.4015949105596</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="14" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1920.449951171875</v>
+      </c>
+      <c r="D747" t="n">
+        <v>397.0499877929688</v>
+      </c>
+      <c r="E747" t="n">
+        <v>901.9000244140625</v>
+      </c>
+      <c r="F747" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="G747" t="n">
+        <v>129.1600036621094</v>
+      </c>
+      <c r="H747" t="n">
+        <v>21109.03997802734</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.004837332358711807</v>
+      </c>
+      <c r="J747" t="n">
+        <v>182.2790947155424</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="14" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D748" t="n">
+        <v>385.0499877929688</v>
+      </c>
+      <c r="E748" t="n">
+        <v>866.9000244140625</v>
+      </c>
+      <c r="F748" t="n">
+        <v>406.8500061035156</v>
+      </c>
+      <c r="G748" t="n">
+        <v>124.8399963378906</v>
+      </c>
+      <c r="H748" t="n">
+        <v>20557.91009521484</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.02610871377315964</v>
+      </c>
+      <c r="J748" t="n">
+        <v>177.5200220047836</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="14" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1852.650024414062</v>
+      </c>
+      <c r="D749" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="E749" t="n">
+        <v>837.5999755859375</v>
+      </c>
+      <c r="F749" t="n">
+        <v>395.0499877929688</v>
+      </c>
+      <c r="G749" t="n">
+        <v>122.4199981689453</v>
+      </c>
+      <c r="H749" t="n">
+        <v>19996.92980957031</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.02728780712856156</v>
+      </c>
+      <c r="J749" t="n">
+        <v>172.6758898828591</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="14" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1903.199951171875</v>
+      </c>
+      <c r="D750" t="n">
+        <v>382.8500061035156</v>
+      </c>
+      <c r="E750" t="n">
+        <v>859.0999755859375</v>
+      </c>
+      <c r="F750" t="n">
+        <v>398.5499877929688</v>
+      </c>
+      <c r="G750" t="n">
+        <v>124.4100036621094</v>
+      </c>
+      <c r="H750" t="n">
+        <v>20390.68978881836</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.01969102172172438</v>
+      </c>
+      <c r="J750" t="n">
+        <v>176.0760545813605</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="14" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1895.699951171875</v>
+      </c>
+      <c r="D751" t="n">
+        <v>374.6000061035156</v>
+      </c>
+      <c r="E751" t="n">
+        <v>844.4000244140625</v>
+      </c>
+      <c r="F751" t="n">
+        <v>393.8500061035156</v>
+      </c>
+      <c r="G751" t="n">
+        <v>123.0599975585938</v>
+      </c>
+      <c r="H751" t="n">
+        <v>20133.94003295898</v>
+      </c>
+      <c r="I751" t="n">
+        <v>-0.01259151889997213</v>
+      </c>
+      <c r="J751" t="n">
+        <v>173.8589896122668</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="14" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1946.300048828125</v>
+      </c>
+      <c r="D752" t="n">
+        <v>392.1000061035156</v>
+      </c>
+      <c r="E752" t="n">
+        <v>868.8499755859375</v>
+      </c>
+      <c r="F752" t="n">
+        <v>400.75</v>
+      </c>
+      <c r="G752" t="n">
+        <v>124.1100006103516</v>
+      </c>
+      <c r="H752" t="n">
+        <v>20680.89010620117</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.0271655757565006</v>
+      </c>
+      <c r="J752" t="n">
+        <v>178.5819691655275</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="14" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1968</v>
+      </c>
+      <c r="D753" t="n">
+        <v>395.25</v>
+      </c>
+      <c r="E753" t="n">
+        <v>883.1500244140625</v>
+      </c>
+      <c r="F753" t="n">
+        <v>425.5499877929688</v>
+      </c>
+      <c r="G753" t="n">
+        <v>128.2700042724609</v>
+      </c>
+      <c r="H753" t="n">
+        <v>21150.38012695312</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.02270163510085943</v>
+      </c>
+      <c r="J753" t="n">
+        <v>182.6360718651162</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="14" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1969.199951171875</v>
+      </c>
+      <c r="D754" t="n">
+        <v>399.25</v>
+      </c>
+      <c r="E754" t="n">
+        <v>822.0999755859375</v>
+      </c>
+      <c r="F754" t="n">
+        <v>423.7999877929688</v>
+      </c>
+      <c r="G754" t="n">
+        <v>129.0599975585938</v>
+      </c>
+      <c r="H754" t="n">
+        <v>20897.68957519531</v>
+      </c>
+      <c r="I754" t="n">
+        <v>-0.01194732909011856</v>
+      </c>
+      <c r="J754" t="n">
+        <v>180.4540586108172</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="14" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C755" t="n">
+        <v>2035.300048828125</v>
+      </c>
+      <c r="D755" t="n">
+        <v>398.8500061035156</v>
+      </c>
+      <c r="E755" t="n">
+        <v>831.5499877929688</v>
+      </c>
+      <c r="F755" t="n">
+        <v>423.7000122070312</v>
+      </c>
+      <c r="G755" t="n">
+        <v>129.4799957275391</v>
+      </c>
+      <c r="H755" t="n">
+        <v>21148.12014770508</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0.0119836487956552</v>
+      </c>
+      <c r="J755" t="n">
+        <v>182.6165566729598</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="14" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C756" t="n">
+        <v>2103.5</v>
+      </c>
+      <c r="D756" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="E756" t="n">
+        <v>845.3499755859375</v>
+      </c>
+      <c r="F756" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="G756" t="n">
+        <v>131.4299926757812</v>
+      </c>
+      <c r="H756" t="n">
+        <v>21587.06970214844</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.02075596087867851</v>
+      </c>
+      <c r="J756" t="n">
+        <v>186.4069387790627</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="14" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C757" t="n">
+        <v>2077</v>
+      </c>
+      <c r="D757" t="n">
+        <v>398.6000061035156</v>
+      </c>
+      <c r="E757" t="n">
+        <v>852.7000122070312</v>
+      </c>
+      <c r="F757" t="n">
+        <v>438.1499938964844</v>
+      </c>
+      <c r="G757" t="n">
+        <v>132.3099975585938</v>
+      </c>
+      <c r="H757" t="n">
+        <v>21559.74002075195</v>
+      </c>
+      <c r="I757" t="n">
+        <v>-0.001266020899249906</v>
+      </c>
+      <c r="J757" t="n">
+        <v>186.1709436988032</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="14" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C758" t="n">
+        <v>2100.800048828125</v>
+      </c>
+      <c r="D758" t="n">
+        <v>398.9500122070312</v>
+      </c>
+      <c r="E758" t="n">
+        <v>868</v>
+      </c>
+      <c r="F758" t="n">
+        <v>433.1000061035156</v>
+      </c>
+      <c r="G758" t="n">
+        <v>134.3600006103516</v>
+      </c>
+      <c r="H758" t="n">
+        <v>21720.29034423828</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.007446765282503091</v>
+      </c>
+      <c r="J758" t="n">
+        <v>187.5573150189503</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="14" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C759" t="n">
+        <v>2105</v>
+      </c>
+      <c r="D759" t="n">
+        <v>399.8500061035156</v>
+      </c>
+      <c r="E759" t="n">
+        <v>880.25</v>
+      </c>
+      <c r="F759" t="n">
+        <v>434.2000122070312</v>
+      </c>
+      <c r="G759" t="n">
+        <v>133.4199981689453</v>
+      </c>
+      <c r="H759" t="n">
+        <v>21790.28012084961</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0.003222322330967102</v>
+      </c>
+      <c r="J759" t="n">
+        <v>188.1616851434721</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="14" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C760" t="n">
+        <v>2045.5</v>
+      </c>
+      <c r="D760" t="n">
+        <v>393.1499938964844</v>
+      </c>
+      <c r="E760" t="n">
+        <v>859.6500244140625</v>
+      </c>
+      <c r="F760" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="G760" t="n">
+        <v>128.8000030517578</v>
+      </c>
+      <c r="H760" t="n">
+        <v>21171.00003051758</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.02842001511212722</v>
+      </c>
+      <c r="J760" t="n">
+        <v>182.8141272081712</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="14" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C761" t="n">
+        <v>2049.699951171875</v>
+      </c>
+      <c r="D761" t="n">
+        <v>397.1499938964844</v>
+      </c>
+      <c r="E761" t="n">
+        <v>886.5499877929688</v>
+      </c>
+      <c r="F761" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="G761" t="n">
+        <v>127.1699981689453</v>
+      </c>
+      <c r="H761" t="n">
+        <v>21358.97958374023</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.008879105991766447</v>
+      </c>
+      <c r="J761" t="n">
+        <v>184.4373532204449</v>
       </c>
     </row>
   </sheetData>
